--- a/html/resources/aoiConditions/train2P2Block5.xlsx
+++ b/html/resources/aoiConditions/train2P2Block5.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
+    <t>trainingaudio/02_pitito3.wav</t>
   </si>
   <si>
     <t>trainingaudio/25_tapapi1.wav</t>
   </si>
   <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
   </si>
   <si>
     <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
   </si>
 </sst>
 </file>
